--- a/Plantilla de habilidades.xlsx
+++ b/Plantilla de habilidades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\Proyectos VS\Proyectazo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UTN\2022\Lab II\pryectazo6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{497F92EC-F89E-49E8-B81C-BE95D6A7A8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE13A65-9DB8-4EEE-AE2F-895DFEADF0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F289420B-928D-4B6D-9A00-B13F97946B31}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
   <si>
     <t>Fireball</t>
   </si>
@@ -91,21 +90,12 @@
     <t>Tierra</t>
   </si>
   <si>
-    <t>Fuego y Aire</t>
-  </si>
-  <si>
     <t>Earthquake</t>
   </si>
   <si>
-    <t>Earth</t>
-  </si>
-  <si>
     <t>Tsunami</t>
   </si>
   <si>
-    <t>Earthquake + Bubble</t>
-  </si>
-  <si>
     <t>Awa</t>
   </si>
   <si>
@@ -124,15 +114,9 @@
     <t>Aumenta la defensa mágica</t>
   </si>
   <si>
-    <t>Aumenta la defensa de un tipo de elemento</t>
-  </si>
-  <si>
     <t>Barrera elemental</t>
   </si>
   <si>
-    <t>Barrier + elementos básicos</t>
-  </si>
-  <si>
     <t>Mirror</t>
   </si>
   <si>
@@ -148,9 +132,6 @@
     <t>Fireball+Earth Armor</t>
   </si>
   <si>
-    <t>Fire y Earth</t>
-  </si>
-  <si>
     <t>Hace daño de fuego y tierra</t>
   </si>
   <si>
@@ -182,13 +163,206 @@
   </si>
   <si>
     <t>Restore</t>
+  </si>
+  <si>
+    <t>FUEGO</t>
+  </si>
+  <si>
+    <t>AGUA</t>
+  </si>
+  <si>
+    <t>TIERRA</t>
+  </si>
+  <si>
+    <t>AIRE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fuego </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y aire</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Aire y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tierra</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fire y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tierra</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Agua</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y Aire</t>
+    </r>
+  </si>
+  <si>
+    <t>Swirl</t>
+  </si>
+  <si>
+    <t>Disminuye un 10% el siguiente ataque del enemigo si es de fuego.</t>
+  </si>
+  <si>
+    <t>Cura xd el 50% del daño hecho?</t>
+  </si>
+  <si>
+    <t>15% EXTRAS?</t>
+  </si>
+  <si>
+    <t>windblow + bubble</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Agua +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Fuego</t>
+    </r>
+  </si>
+  <si>
+    <t>Geiser</t>
+  </si>
+  <si>
+    <t>Fireball + Bubble</t>
+  </si>
+  <si>
+    <t>Bubble + Bubble</t>
+  </si>
+  <si>
+    <t>Hace 15% extra al fuego. Cura si el enemigo es de agua?</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Agua </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Earth </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Tierra </t>
+  </si>
+  <si>
+    <t>Earth armor + earth armor</t>
+  </si>
+  <si>
+    <t>Doton</t>
+  </si>
+  <si>
+    <t>Stun por un turno</t>
+  </si>
+  <si>
+    <t>Barrier + hab. Base de elemento</t>
+  </si>
+  <si>
+    <t>Aumenta la defensa del tipo de elemento</t>
+  </si>
+  <si>
+    <t>Ignora escudos(? Hay escudos? Xd</t>
+  </si>
+  <si>
+    <t>10% de resistencia a todos los elementos (O ESCUDO?)</t>
+  </si>
+  <si>
+    <t>INSERTEUNNOMBRE</t>
+  </si>
+  <si>
+    <t>windoblow + earth armor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,13 +370,88 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8181"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -217,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -225,12 +474,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8181"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -240,6 +525,235 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>295276</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector recto de flecha 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A27DDA-EACA-4902-A8E0-2A57761C0DD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11277600" y="2314575"/>
+          <a:ext cx="714375" cy="9526"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28002C50-ACA7-459A-B844-12C622DDEE16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11144250" y="2981325"/>
+          <a:ext cx="809625" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Conector recto de flecha 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9AF58BA-3605-4B9D-9EB9-F53F8F4BBC2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12353925" y="2409826"/>
+          <a:ext cx="9525" cy="371474"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>333374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector recto de flecha 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69BE1C28-2A0D-4771-8C86-972537CD2113}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10772775" y="2362199"/>
+          <a:ext cx="19050" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1575B6-EC1A-4D1D-8BD4-746F0EB28CFF}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +1070,7 @@
     <col min="8" max="8" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -572,29 +1086,29 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -605,192 +1119,319 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="F13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
+      <c r="F20" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Plantilla de habilidades.xlsx
+++ b/Plantilla de habilidades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UTN\2022\Lab II\pryectazo6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\Proyectos VS\Proyectazo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE13A65-9DB8-4EEE-AE2F-895DFEADF0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936493CC-57B7-4B23-9213-8DE060E502CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F289420B-928D-4B6D-9A00-B13F97946B31}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15510" windowHeight="11190" xr2:uid="{F289420B-928D-4B6D-9A00-B13F97946B31}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="109">
   <si>
     <t>Fireball</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>Fireball+Earth Armor</t>
-  </si>
-  <si>
-    <t>Hace daño de fuego y tierra</t>
   </si>
   <si>
     <t>Hace daño de tierra y PROBABILIDAD de stunear</t>
@@ -247,12 +244,6 @@
     <t>Swirl</t>
   </si>
   <si>
-    <t>Disminuye un 10% el siguiente ataque del enemigo si es de fuego.</t>
-  </si>
-  <si>
-    <t>Cura xd el 50% del daño hecho?</t>
-  </si>
-  <si>
     <t>15% EXTRAS?</t>
   </si>
   <si>
@@ -288,9 +279,6 @@
   </si>
   <si>
     <t>Bubble + Bubble</t>
-  </si>
-  <si>
-    <t>Hace 15% extra al fuego. Cura si el enemigo es de agua?</t>
   </si>
   <si>
     <t>neutral</t>
@@ -337,32 +325,152 @@
     <t>Doton</t>
   </si>
   <si>
-    <t>Stun por un turno</t>
-  </si>
-  <si>
     <t>Barrier + hab. Base de elemento</t>
   </si>
   <si>
     <t>Aumenta la defensa del tipo de elemento</t>
   </si>
   <si>
-    <t>Ignora escudos(? Hay escudos? Xd</t>
-  </si>
-  <si>
-    <t>10% de resistencia a todos los elementos (O ESCUDO?)</t>
-  </si>
-  <si>
-    <t>INSERTEUNNOMBRE</t>
-  </si>
-  <si>
-    <t>windoblow + earth armor</t>
+    <t>Hace daño verdadero</t>
+  </si>
+  <si>
+    <t>Sabaku Kyu</t>
+  </si>
+  <si>
+    <t>el cura que cura</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>uso de mp</t>
+  </si>
+  <si>
+    <t>yo</t>
+  </si>
+  <si>
+    <t>windoblows + earth armor</t>
+  </si>
+  <si>
+    <t>Hace daño x2 a los enemigos de fuego</t>
+  </si>
+  <si>
+    <t>Disminuye un 20% el siguiente ataque del enemigo.</t>
+  </si>
+  <si>
+    <t>Aumenta la defensa física</t>
+  </si>
+  <si>
+    <t>Ataques</t>
+  </si>
+  <si>
+    <t>Habilidades</t>
+  </si>
+  <si>
+    <t>10% de resistencia a todos los elementos y los ataques básicos hacen daño de tierra</t>
+  </si>
+  <si>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t>Columna2</t>
+  </si>
+  <si>
+    <t>Columna3</t>
+  </si>
+  <si>
+    <t>Columna4</t>
+  </si>
+  <si>
+    <t>Columna5</t>
+  </si>
+  <si>
+    <t>Columna6</t>
+  </si>
+  <si>
+    <t>Columna7</t>
+  </si>
+  <si>
+    <t>DamageMultiplier</t>
+  </si>
+  <si>
+    <t>Vampirismo</t>
+  </si>
+  <si>
+    <t>StunProb</t>
+  </si>
+  <si>
+    <t>Por 1 turno</t>
+  </si>
+  <si>
+    <t>Hace daño y reduce la defensa mágica</t>
+  </si>
+  <si>
+    <t>reducePD</t>
+  </si>
+  <si>
+    <t>reduceMR</t>
+  </si>
+  <si>
+    <t>Hace daño y reduce la defensa física</t>
+  </si>
+  <si>
+    <t>burn</t>
+  </si>
+  <si>
+    <t>poison</t>
+  </si>
+  <si>
+    <t>reduceAtt</t>
+  </si>
+  <si>
+    <t>truedamash</t>
+  </si>
+  <si>
+    <t>risePD</t>
+  </si>
+  <si>
+    <t>riseMR</t>
+  </si>
+  <si>
+    <t>heal</t>
+  </si>
+  <si>
+    <t>statusHeal</t>
+  </si>
+  <si>
+    <t>elementMR</t>
+  </si>
+  <si>
+    <t>mirror</t>
+  </si>
+  <si>
+    <t>elementAtt</t>
+  </si>
+  <si>
+    <t>:(</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>como controlar los turnos correctamente</t>
+  </si>
+  <si>
+    <t>terminar los sets y gets de las habilidades</t>
+  </si>
+  <si>
+    <t>como PINGO hacer funcionar el vampirismo</t>
+  </si>
+  <si>
+    <t>^^quelenemigotecure^.^</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,8 +529,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,6 +576,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -466,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -505,11 +634,42 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -754,6 +914,22 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A3ACF86-7AC4-4CCC-B8D5-9493EDCB2A22}" name="Tabla1" displayName="Tabla1" ref="A1:G22" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:G22" xr:uid="{4A3ACF86-7AC4-4CCC-B8D5-9493EDCB2A22}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{5E818E1B-7B67-4330-9694-CF50496B1827}" name="Columna1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{18395091-2274-49A8-B58A-8BD688DEE5C6}" name="Columna2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{2BD207E8-08B9-426F-B378-F1F4CFF63F78}" name="Columna3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{931F7E68-7FFC-421D-A4E2-5EF53D6C464B}" name="Columna4" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{9DE6B76A-1451-486E-B6FC-1B155619E8C3}" name="Columna5"/>
+    <tableColumn id="6" xr3:uid="{80DC395C-337E-49E0-92D0-A61FEBBB9F85}" name="Columna6" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{DC8CDE1A-2E14-4C8F-9EAA-CABB3F1E9228}" name="Columna7" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1053,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1575B6-EC1A-4D1D-8BD4-746F0EB28CFF}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="F15" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,374 +1240,577 @@
     <col min="1" max="1" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="71.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>73</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>66</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>68</v>
+        <v>40</v>
+      </c>
+      <c r="G9" s="1">
+        <v>15</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>63</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="F12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="1">
+        <v>20</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>62</v>
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="1">
+        <v>25</v>
+      </c>
+      <c r="M14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G15" s="1">
+        <v>20</v>
+      </c>
+      <c r="M15">
+        <v>25</v>
+      </c>
+      <c r="N15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="1">
+        <v>20</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="K16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="E19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="1">
         <v>30</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="3" t="s">
+    </row>
+    <row r="20" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G21" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Plantilla de habilidades.xlsx
+++ b/Plantilla de habilidades.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\Proyectos VS\Proyectazo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\Backup Lucas Junio - 2022\Proyectos VS\Proyectazo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936493CC-57B7-4B23-9213-8DE060E502CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488D288B-65AB-4C70-8EAA-A5D1E88D90C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15510" windowHeight="11190" xr2:uid="{F289420B-928D-4B6D-9A00-B13F97946B31}"/>
+    <workbookView xWindow="10425" yWindow="3930" windowWidth="15510" windowHeight="11190" activeTab="1" xr2:uid="{F289420B-928D-4B6D-9A00-B13F97946B31}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="121">
   <si>
     <t>Fireball</t>
   </si>
@@ -464,6 +465,42 @@
   </si>
   <si>
     <t>^^quelenemigotecure^.^</t>
+  </si>
+  <si>
+    <t>AbilityFactory</t>
+  </si>
+  <si>
+    <t>EnemyFactory</t>
+  </si>
+  <si>
+    <t>Enemy enemy;</t>
+  </si>
+  <si>
+    <t>Ability ability;</t>
+  </si>
+  <si>
+    <t>set stats</t>
+  </si>
+  <si>
+    <t>set habilidad 1</t>
+  </si>
+  <si>
+    <t>set habilidad 2</t>
+  </si>
+  <si>
+    <t>set sprite</t>
+  </si>
+  <si>
+    <t>Quei simo</t>
+  </si>
+  <si>
+    <t>Dragon checkstates()</t>
+  </si>
+  <si>
+    <t>kea ser</t>
+  </si>
+  <si>
+    <t>definir lo que hay que hacer con useAbility (relación con checkstates());</t>
   </si>
 </sst>
 </file>
@@ -649,13 +686,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -917,16 +954,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A3ACF86-7AC4-4CCC-B8D5-9493EDCB2A22}" name="Tabla1" displayName="Tabla1" ref="A1:G22" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A3ACF86-7AC4-4CCC-B8D5-9493EDCB2A22}" name="Tabla1" displayName="Tabla1" ref="A1:G22" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:G22" xr:uid="{4A3ACF86-7AC4-4CCC-B8D5-9493EDCB2A22}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5E818E1B-7B67-4330-9694-CF50496B1827}" name="Columna1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{18395091-2274-49A8-B58A-8BD688DEE5C6}" name="Columna2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{2BD207E8-08B9-426F-B378-F1F4CFF63F78}" name="Columna3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{931F7E68-7FFC-421D-A4E2-5EF53D6C464B}" name="Columna4" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{5E818E1B-7B67-4330-9694-CF50496B1827}" name="Columna1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{18395091-2274-49A8-B58A-8BD688DEE5C6}" name="Columna2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{2BD207E8-08B9-426F-B378-F1F4CFF63F78}" name="Columna3" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{931F7E68-7FFC-421D-A4E2-5EF53D6C464B}" name="Columna4" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{9DE6B76A-1451-486E-B6FC-1B155619E8C3}" name="Columna5"/>
-    <tableColumn id="6" xr3:uid="{80DC395C-337E-49E0-92D0-A61FEBBB9F85}" name="Columna6" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{DC8CDE1A-2E14-4C8F-9EAA-CABB3F1E9228}" name="Columna7" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{80DC395C-337E-49E0-92D0-A61FEBBB9F85}" name="Columna6" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{DC8CDE1A-2E14-4C8F-9EAA-CABB3F1E9228}" name="Columna7" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1231,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1575B6-EC1A-4D1D-8BD4-746F0EB28CFF}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F15" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,4 +1850,178 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9076AE7E-FB59-4599-805D-C36A527D9B9A}">
+  <dimension ref="B3:I28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>345</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>34234</v>
+      </c>
+      <c r="E26">
+        <v>52</v>
+      </c>
+      <c r="F26">
+        <v>345</v>
+      </c>
+      <c r="G26">
+        <v>2345</v>
+      </c>
+      <c r="H26">
+        <v>23</v>
+      </c>
+      <c r="I26">
+        <v>4523</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>52</v>
+      </c>
+      <c r="E27">
+        <v>324</v>
+      </c>
+      <c r="F27">
+        <v>63</v>
+      </c>
+      <c r="G27">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>56</v>
+      </c>
+      <c r="F28">
+        <v>345</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Plantilla de habilidades.xlsx
+++ b/Plantilla de habilidades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\Backup Lucas Junio - 2022\Proyectos VS\Proyectazo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UTN\2022\Lab II\pryectazo6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488D288B-65AB-4C70-8EAA-A5D1E88D90C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E78289C-C003-4223-80D9-5A5CAB626DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10425" yWindow="3930" windowWidth="15510" windowHeight="11190" activeTab="1" xr2:uid="{F289420B-928D-4B6D-9A00-B13F97946B31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F289420B-928D-4B6D-9A00-B13F97946B31}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="124">
   <si>
     <t>Fireball</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Heal</t>
-  </si>
-  <si>
-    <t>Vampire Fire</t>
   </si>
   <si>
     <t>Fireball+Heal</t>
@@ -502,12 +499,24 @@
   <si>
     <t>definir lo que hay que hacer con useAbility (relación con checkstates());</t>
   </si>
+  <si>
+    <t>Columna8</t>
+  </si>
+  <si>
+    <t>Daño</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Hot vampire</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,6 +586,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -681,7 +696,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -954,16 +972,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A3ACF86-7AC4-4CCC-B8D5-9493EDCB2A22}" name="Tabla1" displayName="Tabla1" ref="A1:G22" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:G22" xr:uid="{4A3ACF86-7AC4-4CCC-B8D5-9493EDCB2A22}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5E818E1B-7B67-4330-9694-CF50496B1827}" name="Columna1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{18395091-2274-49A8-B58A-8BD688DEE5C6}" name="Columna2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{2BD207E8-08B9-426F-B378-F1F4CFF63F78}" name="Columna3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{931F7E68-7FFC-421D-A4E2-5EF53D6C464B}" name="Columna4" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A3ACF86-7AC4-4CCC-B8D5-9493EDCB2A22}" name="Tabla1" displayName="Tabla1" ref="A1:H22" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:H22" xr:uid="{4A3ACF86-7AC4-4CCC-B8D5-9493EDCB2A22}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{5E818E1B-7B67-4330-9694-CF50496B1827}" name="Columna1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{18395091-2274-49A8-B58A-8BD688DEE5C6}" name="Columna2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{2BD207E8-08B9-426F-B378-F1F4CFF63F78}" name="Columna3" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{931F7E68-7FFC-421D-A4E2-5EF53D6C464B}" name="Columna4" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{9DE6B76A-1451-486E-B6FC-1B155619E8C3}" name="Columna5"/>
-    <tableColumn id="6" xr3:uid="{80DC395C-337E-49E0-92D0-A61FEBBB9F85}" name="Columna6" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{DC8CDE1A-2E14-4C8F-9EAA-CABB3F1E9228}" name="Columna7" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{80DC395C-337E-49E0-92D0-A61FEBBB9F85}" name="Columna6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{DC8CDE1A-2E14-4C8F-9EAA-CABB3F1E9228}" name="Columna7" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{7983D8A4-9D17-4BE5-9673-4FDE065C66B8}" name="Columna8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1268,18 +1287,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1575B6-EC1A-4D1D-8BD4-746F0EB28CFF}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="71.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -1287,27 +1306,29 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="2" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -1320,13 +1341,16 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1337,13 +1361,16 @@
         <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1">
         <v>5</v>
       </c>
+      <c r="H3" s="1">
+        <v>15</v>
+      </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1354,10 +1381,13 @@
         <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1">
         <v>5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1368,13 +1398,16 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1">
         <v>5</v>
       </c>
+      <c r="H5" s="1">
+        <v>15</v>
+      </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1385,13 +1418,16 @@
         <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -1399,26 +1435,29 @@
     </row>
     <row r="7" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="1">
         <v>5</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="I7" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L7" s="6"/>
     </row>
@@ -1430,13 +1469,16 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="1">
         <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1445,50 +1487,56 @@
     </row>
     <row r="9" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="G9" s="1">
         <v>15</v>
       </c>
+      <c r="H9" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="I9" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="G10" s="1">
         <v>10</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1497,45 +1545,51 @@
     </row>
     <row r="11" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="G11" s="1">
         <v>10</v>
       </c>
+      <c r="H11" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1">
         <v>20</v>
       </c>
+      <c r="H12" s="1">
+        <v>25</v>
+      </c>
       <c r="K12" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1549,57 +1603,66 @@
         <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="1">
         <v>20</v>
       </c>
+      <c r="H13" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="1">
         <v>25</v>
       </c>
+      <c r="H14" s="1">
+        <v>25</v>
+      </c>
       <c r="M14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="1">
         <v>20</v>
       </c>
+      <c r="H15" s="1">
+        <v>25</v>
+      </c>
       <c r="M15">
         <v>25</v>
       </c>
@@ -1609,240 +1672,259 @@
     </row>
     <row r="16" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G16" s="1">
         <v>20</v>
       </c>
-      <c r="H16" s="14"/>
+      <c r="H16" s="14">
+        <v>25</v>
+      </c>
       <c r="K16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" s="1">
         <v>25</v>
       </c>
+      <c r="H17" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G18" s="1">
         <v>20</v>
       </c>
+      <c r="H18" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G19" s="1">
         <v>30</v>
       </c>
+      <c r="H19" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G20" s="1">
         <v>30</v>
       </c>
+      <c r="H20" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="1">
         <v>30</v>
       </c>
+      <c r="H21" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G22" s="1">
         <v>35</v>
       </c>
+      <c r="H22" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F27" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F28" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F29" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F30" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1856,7 +1938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9076AE7E-FB59-4599-805D-C36A527D9B9A}">
   <dimension ref="B3:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -1868,54 +1950,54 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
         <v>109</v>
-      </c>
-      <c r="E3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">

--- a/Plantilla de habilidades.xlsx
+++ b/Plantilla de habilidades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UTN\2022\Lab II\pryectazo6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\Proyectos VS\Proyectazo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E78289C-C003-4223-80D9-5A5CAB626DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3A1647-BF6D-41BD-AF59-47C38146D46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F289420B-928D-4B6D-9A00-B13F97946B31}"/>
   </bookViews>
@@ -597,7 +597,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -634,6 +634,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -647,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -692,6 +698,13 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1287,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1575B6-EC1A-4D1D-8BD4-746F0EB28CFF}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,6 +1844,16 @@
         <v>35</v>
       </c>
       <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H24" t="s">

--- a/Plantilla de habilidades.xlsx
+++ b/Plantilla de habilidades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\Proyectos VS\Proyectazo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3A1647-BF6D-41BD-AF59-47C38146D46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFD5B1D-83DE-4B1D-A5FE-4EFB5FBC517C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F289420B-928D-4B6D-9A00-B13F97946B31}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="135">
   <si>
     <t>Fireball</t>
   </si>
@@ -464,42 +464,6 @@
     <t>^^quelenemigotecure^.^</t>
   </si>
   <si>
-    <t>AbilityFactory</t>
-  </si>
-  <si>
-    <t>EnemyFactory</t>
-  </si>
-  <si>
-    <t>Enemy enemy;</t>
-  </si>
-  <si>
-    <t>Ability ability;</t>
-  </si>
-  <si>
-    <t>set stats</t>
-  </si>
-  <si>
-    <t>set habilidad 1</t>
-  </si>
-  <si>
-    <t>set habilidad 2</t>
-  </si>
-  <si>
-    <t>set sprite</t>
-  </si>
-  <si>
-    <t>Quei simo</t>
-  </si>
-  <si>
-    <t>Dragon checkstates()</t>
-  </si>
-  <si>
-    <t>kea ser</t>
-  </si>
-  <si>
-    <t>definir lo que hay que hacer con useAbility (relación con checkstates());</t>
-  </si>
-  <si>
     <t>Columna8</t>
   </si>
   <si>
@@ -510,6 +474,75 @@
   </si>
   <si>
     <t>Hot vampire</t>
+  </si>
+  <si>
+    <t>Tenemos</t>
+  </si>
+  <si>
+    <t>Clase Ability</t>
+  </si>
+  <si>
+    <t>Clase AbilityMagic</t>
+  </si>
+  <si>
+    <t>Clase AbilityFactory</t>
+  </si>
+  <si>
+    <t>Fight -&gt; MenuFight -&gt; DyvirFight &amp; Enemy</t>
+  </si>
+  <si>
+    <t>PERO</t>
+  </si>
+  <si>
+    <t>Hacer un switch con un número random para que nos ataque de diferentes maneras</t>
+  </si>
+  <si>
+    <t>IA =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MP -= ability.getMPconsumed() </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon::useAbility(Dragon&amp;){ </t>
+  </si>
+  <si>
+    <t>ability.useAbility(Dragon&amp;)</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>else {</t>
+  </si>
+  <si>
+    <t>" te quedaste sin mana PETEEEEEEEEE";</t>
+  </si>
+  <si>
+    <t>if (MP &gt;= ability.getMPconsumed(){</t>
+  </si>
+  <si>
+    <t>4) Stats (subir de nivel, habilidades equipadas, ataque, defensa, defensa contra elementos, ataque de elementos?)  tamoeneso   ??????????</t>
+  </si>
+  <si>
+    <t>5) Clase menuDungeon (pausa, organizar inventario, combinar habilidades, guardar partida)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6) Definir los encuentros aleatorios (STATE MACHINE y números aleatorios) </t>
+  </si>
+  <si>
+    <t>7) Añadir más enemigos (por lo menos 2)</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Earth</t>
+  </si>
+  <si>
+    <t>Case Fire&amp;&amp;Earth</t>
+  </si>
+  <si>
+    <t>return Swirl</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1334,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,7 +1373,7 @@
         <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1360,7 +1393,7 @@
         <v>67</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="I2" t="s">
         <v>73</v>
@@ -1373,6 +1406,9 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1393,6 +1429,9 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
       <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1410,6 +1449,9 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1430,6 +1472,9 @@
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
@@ -1440,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -1453,6 +1498,9 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D7" s="1">
+        <v>16</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>56</v>
       </c>
@@ -1463,7 +1511,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>42</v>
@@ -1481,6 +1529,9 @@
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D8" s="1">
+        <v>32</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>56</v>
       </c>
@@ -1491,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1518,7 +1569,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>44</v>
@@ -1549,7 +1600,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1576,7 +1627,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1630,7 +1681,7 @@
     </row>
     <row r="14" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
@@ -1704,6 +1755,9 @@
       </c>
       <c r="H16" s="14">
         <v>25</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
       </c>
       <c r="K16" t="s">
         <v>86</v>
@@ -1880,6 +1934,9 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="F27" s="2" t="s">
         <v>104</v>
       </c>
@@ -1891,6 +1948,9 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="F28" s="2" t="s">
         <v>105</v>
       </c>
@@ -1924,6 +1984,12 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="H31" t="s">
         <v>92</v>
       </c>
@@ -1959,171 +2025,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9076AE7E-FB59-4599-805D-C36A527D9B9A}">
-  <dimension ref="B3:I28"/>
+  <dimension ref="B3:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>116</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
         <v>117</v>
       </c>
-      <c r="D12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>3425</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <v>5</v>
-      </c>
-      <c r="F24">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>23</v>
-      </c>
-      <c r="D25">
-        <v>6</v>
-      </c>
-      <c r="E25">
-        <v>345</v>
-      </c>
-      <c r="F25">
-        <v>6</v>
-      </c>
-      <c r="I25">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D26">
-        <v>34234</v>
-      </c>
-      <c r="E26">
-        <v>52</v>
-      </c>
-      <c r="F26">
-        <v>345</v>
-      </c>
-      <c r="G26">
-        <v>2345</v>
-      </c>
-      <c r="H26">
-        <v>23</v>
-      </c>
-      <c r="I26">
-        <v>4523</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D27">
-        <v>52</v>
-      </c>
-      <c r="E27">
-        <v>324</v>
-      </c>
-      <c r="F27">
-        <v>63</v>
-      </c>
-      <c r="G27">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E28">
-        <v>56</v>
-      </c>
-      <c r="F28">
-        <v>345</v>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Plantilla de habilidades.xlsx
+++ b/Plantilla de habilidades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\Proyectos VS\Proyectazo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFD5B1D-83DE-4B1D-A5FE-4EFB5FBC517C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE074A4-0A57-4D24-BF4D-BB9DE43667FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F289420B-928D-4B6D-9A00-B13F97946B31}"/>
   </bookViews>
@@ -1333,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1575B6-EC1A-4D1D-8BD4-746F0EB28CFF}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Plantilla de habilidades.xlsx
+++ b/Plantilla de habilidades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\Proyectos VS\Proyectazo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE074A4-0A57-4D24-BF4D-BB9DE43667FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD55FA0F-3FED-42DA-9ADA-97CBB84287A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F289420B-928D-4B6D-9A00-B13F97946B31}"/>
+    <workbookView xWindow="13230" yWindow="2805" windowWidth="15510" windowHeight="11190" xr2:uid="{F289420B-928D-4B6D-9A00-B13F97946B31}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -630,7 +630,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -673,6 +673,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -686,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -738,6 +744,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1333,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1575B6-EC1A-4D1D-8BD4-746F0EB28CFF}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,14 +1409,11 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
@@ -1429,9 +1435,6 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
       <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1449,9 +1452,6 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1472,9 +1472,6 @@
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1">
-        <v>8</v>
-      </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
@@ -1498,9 +1495,6 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1">
-        <v>16</v>
-      </c>
       <c r="E7" s="1" t="s">
         <v>56</v>
       </c>
@@ -1528,9 +1522,6 @@
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D8" s="1">
-        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>56</v>
@@ -1550,7 +1541,7 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1657,7 +1648,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1680,7 +1671,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="19" t="s">
         <v>111</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1706,7 +1697,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1735,7 +1726,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1764,7 +1755,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1787,7 +1778,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1833,7 +1824,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1856,7 +1847,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="19" t="s">
         <v>64</v>
       </c>
       <c r="B21" s="1" t="s">

--- a/Plantilla de habilidades.xlsx
+++ b/Plantilla de habilidades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\Proyectos VS\Proyectazo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UTN\2022\Lab II\pryectazo6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFD5B1D-83DE-4B1D-A5FE-4EFB5FBC517C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297A8851-CAD0-44B5-99A2-8205C60B45D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F289420B-928D-4B6D-9A00-B13F97946B31}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="136">
   <si>
     <t>Fireball</t>
   </si>
@@ -115,13 +115,7 @@
     <t>Barrera elemental</t>
   </si>
   <si>
-    <t>Mirror</t>
-  </si>
-  <si>
     <t>Barrier + Heal</t>
-  </si>
-  <si>
-    <t>PROBABILIDAD de rebotar el ataque enemigo</t>
   </si>
   <si>
     <t>Magma Wave</t>
@@ -326,9 +320,6 @@
     <t>Barrier + hab. Base de elemento</t>
   </si>
   <si>
-    <t>Aumenta la defensa del tipo de elemento</t>
-  </si>
-  <si>
     <t>Hace daño verdadero</t>
   </si>
   <si>
@@ -365,9 +356,6 @@
     <t>Habilidades</t>
   </si>
   <si>
-    <t>10% de resistencia a todos los elementos y los ataques básicos hacen daño de tierra</t>
-  </si>
-  <si>
     <t>Columna1</t>
   </si>
   <si>
@@ -543,6 +531,21 @@
   </si>
   <si>
     <t>return Swirl</t>
+  </si>
+  <si>
+    <t>Aumente daño magico</t>
+  </si>
+  <si>
+    <t>Cosmic wisdom</t>
+  </si>
+  <si>
+    <t>if (dragon.elementweak == elemento de ability) aumenta elementresistance</t>
+  </si>
+  <si>
+    <t>Aumenta la resistencia del elemento</t>
+  </si>
+  <si>
+    <t>Aumenta defensa fisica y devuelve el 20% del daño recibido en el proximo ataque.</t>
   </si>
 </sst>
 </file>
@@ -630,7 +633,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -673,6 +676,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -686,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -738,6 +747,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1019,7 +1040,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A3ACF86-7AC4-4CCC-B8D5-9493EDCB2A22}" name="Tabla1" displayName="Tabla1" ref="A1:H22" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:H22" xr:uid="{4A3ACF86-7AC4-4CCC-B8D5-9493EDCB2A22}"/>
+  <autoFilter ref="A1:H22" xr:uid="{4A3ACF86-7AC4-4CCC-B8D5-9493EDCB2A22}">
+    <filterColumn colId="1">
+      <filters blank="1">
+        <filter val="AbilityMagic"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5E818E1B-7B67-4330-9694-CF50496B1827}" name="Columna1" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{18395091-2274-49A8-B58A-8BD688DEE5C6}" name="Columna2" dataDxfId="5"/>
@@ -1333,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1575B6-EC1A-4D1D-8BD4-746F0EB28CFF}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,28 +1379,28 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1390,16 +1417,16 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1419,10 +1446,10 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1442,7 +1469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1462,7 +1489,7 @@
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1479,13 +1506,13 @@
         <v>16</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -1502,7 +1529,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>24</v>
@@ -1511,14 +1538,14 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L7" s="6"/>
     </row>
@@ -1533,16 +1560,16 @@
         <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G8" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1551,86 +1578,90 @@
     </row>
     <row r="9" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1">
         <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="D10" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="19">
         <v>10</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" s="9"/>
+      <c r="H10" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>133</v>
+      </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="G11" s="1">
         <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="1:14" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1638,13 +1669,13 @@
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G12" s="1">
         <v>20</v>
@@ -1653,10 +1684,10 @@
         <v>25</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1667,10 +1698,10 @@
         <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G13" s="1">
         <v>20</v>
@@ -1679,9 +1710,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
@@ -1693,7 +1724,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1">
         <v>25</v>
@@ -1702,10 +1733,10 @@
         <v>25</v>
       </c>
       <c r="M14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1716,10 +1747,10 @@
         <v>22</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G15" s="1">
         <v>20</v>
@@ -1734,21 +1765,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G16" s="1">
         <v>20</v>
@@ -1760,10 +1791,10 @@
         <v>3</v>
       </c>
       <c r="K16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1777,7 +1808,7 @@
         <v>15</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G17" s="1">
         <v>25</v>
@@ -1786,21 +1817,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G18" s="1">
         <v>20</v>
@@ -1809,21 +1840,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="1">
         <v>30</v>
@@ -1832,21 +1863,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G20" s="1">
         <v>30</v>
@@ -1855,21 +1886,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G21" s="1">
         <v>30</v>
@@ -1880,19 +1911,19 @@
     </row>
     <row r="22" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="G22" s="1">
         <v>35</v>
@@ -1914,102 +1945,102 @@
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H27" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I28" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F29" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H29" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I29" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F30" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H31" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H32" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2042,100 +2073,100 @@
   <sheetData>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
